--- a/console/Elastic-Compute/Virtual-Machine/common/util/util.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/common/util/util.xlsx
@@ -16,16 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
   <si>
     <t>checkDesc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Please input description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Description length cannot exceed 256 characters</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Modifying configuration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rebuilding</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Stop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Error</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,18 +197,6 @@
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
-      <t>停止</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
       <t>错误</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,10 +270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Password cannot be less than 8 characters and not more than 30 characters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -310,10 +282,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Input password does not comply with the rule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -326,10 +294,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Password must include three types of the capital and lowercase letters, numbers and special characters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -342,10 +306,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Password can't include the username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>checkName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,10 +322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Must provide a name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -396,10 +352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The name length cannot exceed 32 characters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -490,6 +442,46 @@
       </rPr>
       <t>“_”</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password must be between 8 - 30 characters</t>
+  </si>
+  <si>
+    <t>Password does not comply with the rule</t>
+  </si>
+  <si>
+    <t>Password must include three types among the capital and lowercase letters, numbers and special characters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password can't include your PIN</t>
+  </si>
+  <si>
+    <t>The length of name cannot exceed 32 characters</t>
+  </si>
+  <si>
+    <t>Please enter description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stopped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name cannot be blank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The length of name cannot exceed 32 characters</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,9 +537,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -854,158 +850,159 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="61" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="57" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.25" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1013,10 +1010,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1024,131 +1021,131 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
